--- a/biology/Médecine/F-CRIN/F-CRIN.xlsx
+++ b/biology/Médecine/F-CRIN/F-CRIN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'infrastructure de recherche clinique F-CRIN (French Clinical Research Infrastructure Network), portée par l'INSERM, est l'une des lauréates de l'Appel à projets « Infrastructures en Biologie et Santé »[1] lancé en 2010 par l'Agence Nationale de la Recherche (ANR). Cet appel à projets s'inscrit dans les « Investissements d'avenir »[2], dits du « Grand Emprunt », lancés par l'État français en 2010 sur les marchés financiers.  
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'infrastructure de recherche clinique F-CRIN (French Clinical Research Infrastructure Network), portée par l'INSERM, est l'une des lauréates de l'Appel à projets « Infrastructures en Biologie et Santé » lancé en 2010 par l'Agence Nationale de la Recherche (ANR). Cet appel à projets s'inscrit dans les « Investissements d'avenir », dits du « Grand Emprunt », lancés par l'État français en 2010 sur les marchés financiers.  
 Le projet F-CRIN a pour but de renforcer la performance et la compétitivité de la France dans le domaine de la recherche clinique française, qu'elle soit académique ou industrielle, en particulier au plan européen et international. L'objectif est d'identifier et de renforcer certains axes d'excellence à fort potentiel de la France dans le domaine de la recherche translationnelle, pour les essais cliniques aux phases les plus précoces dites de « preuves de concept », en particulier en lien avec l'industrie, et parallèlement d'accroître le nombre de protocoles académiques à coordination scientifique française de dimension internationale. 
-F-CRIN est également la composante française de l'ERIC[3] ECRIN (European Clinical Research Infrastructure Network[1], réseau européen de recherche clinique, support de réalisation d'essais cliniques multinationaux, coordonné par le Pr Jacques Demotes. À ce titre, F-CRIN a aussi pour mission d'aider les promoteurs et les investigateurs académiques d'autres pays d'Europe souhaitant étendre à des centres français leurs propres projets de recherche clinique.
+F-CRIN est également la composante française de l'ERIC ECRIN (European Clinical Research Infrastructure Network, réseau européen de recherche clinique, support de réalisation d'essais cliniques multinationaux, coordonné par le Pr Jacques Demotes. À ce titre, F-CRIN a aussi pour mission d'aider les promoteurs et les investigateurs académiques d'autres pays d'Europe souhaitant étendre à des centres français leurs propres projets de recherche clinique.
 La coordination nationale de l’infrastructure est localisée à Toulouse, avec statut d’unité mixte de service (UMS 015) associant l'Inserm, le CHU de Toulouse et l'Université Toulouse III Paul Sabatier. Au plan fonctionnel, F-CRIN est coordonné par le Pr Olivier Rascol, neuropharmacologue au CHU de Toulouse, et Vincent Diebolt, directeur d’hôpital.
 </t>
         </is>
@@ -514,7 +526,9 @@
           <t>F-CRIN, une organisation centrée sur des réseaux de recherche ciblant des pathologies précises</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au 1er janvier 2020, l’Infrastructure F-CRIN comptait 18 composantes complémentaires, qui, prises dans leur ensemble, constituent un catalyseur national d’expertises complémentaires de pointe en recherche clinique :
 Douze réseaux thématisés d’investigation clinique ou « INI » (Investigation Network Initiative), d’envergure nationale sur différentes expertises : diabète, asthme, thrombose, Sclérose en plaques, maladies de la rétine, maladies auto-immunes, vaccins, maladies cardiovasculaires, rénales, Parkinson, sepsis, pédiatrie, obésité, maladies inflammatoires ostéoarticulaires et systémiques. Les thématiques telles que le cancer ayant bénéficié de plans nationaux ou d’actions spécifiques de structuration et d’accompagnement sont exclues du champ d’action de F-CRIN
@@ -550,9 +564,11 @@
           <t>Reconduite et refinancement de F-CRIN</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mise en place en 2012 pour une durée initiale de huit ans (2012-2019) et une dotation de 18 millions d’euros alloués[4] par l’ANR, F-CRIN a été reconduite pour 5 années supplémentaires (2020-2025) avec une nouvelle dotation de 5,4 millions d’euros[5] au terme de son évaluation finale conduite par l’ANR.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mise en place en 2012 pour une durée initiale de huit ans (2012-2019) et une dotation de 18 millions d’euros alloués par l’ANR, F-CRIN a été reconduite pour 5 années supplémentaires (2020-2025) avec une nouvelle dotation de 5,4 millions d’euros au terme de son évaluation finale conduite par l’ANR.
 Le jury scientifique de l'ANR a jugé que : "F-CRIN est un succès. En quelques années, F-CRIN a mis en place un outil organisationnel efficace de "preuve de concept" optimisant le système fragmenté existant, mettant en synergie les principaux opérateurs français de la recherche clinique et s'appuyant sur un modèle original de réseaux d'excellence" (extrait du courrier du Président de l'ANR au PDG de l'INSERM du 25 juillet 2019).
 </t>
         </is>
@@ -582,7 +598,9 @@
           <t>Le plan stratégique F-CRIN 2020/2024</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La stratégie de F-CRIN sur la période 2020-2025, est de capitaliser sur l'existant, d’investir les domaines les plus porteurs de la médecine de demain, et de répondre aux situations d’urgence :
 Elargir l’envergure de F-CRIN afin de couvrir de nouvelles pathologies et domaines thérapeutiques et développer des initiatives de soins primaires et de biothérapies
@@ -617,10 +635,12 @@
           <t>F-CRIN et la Covid 19</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Mise en place en octobre 2020 avec le soutien des pouvoirs publics, COVIREIVAC, plateforme d’expérimentation de candidats-vaccins sur la COVID, est pilotée par l’Inserm et fédère 24 Centres d’Investigation Clinique et plusieurs Centres de ressources biologiques au sein de CHU français. Elle associe également le CNGE (Collège National des Généralistes Enseignants). Cette plateforme est une extension du réseau thématique en vaccinologie labellisée F-CRIN I-REIVAC, coordonné par le Pr Odile Launay.
-Elle vise à offrir aux promoteurs industriels et académiques d’essais cliniques, la force de frappe de l’expertise d’investigation clinique française associé à une base référençant 25 000 volontaires, âgés de 18 ans et plus[6], recrutés via le site internet https://www.covireivac.fr/.
+Elle vise à offrir aux promoteurs industriels et académiques d’essais cliniques, la force de frappe de l’expertise d’investigation clinique française associé à une base référençant 25 000 volontaires, âgés de 18 ans et plus, recrutés via le site internet https://www.covireivac.fr/.
 </t>
         </is>
       </c>
@@ -649,7 +669,9 @@
           <t>L'activité de formation à la recherche clinique de F-CRIN</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>La compétence et la qualification des équipes de recherche clinique est un facteur majeur d’attractivité de la France. Cette compétence s’entretient, s’actualise dans un domaine, la recherche clinique, en constante évolution, en fonction des avancées médicales et scientifiques, des changements juridiques, méthodologiques …
 La stratégie de F-CRIN en formation à la recherche clinique est d’apporter des réponses pratiques dans des domaines peu ou non investis. L’offre est construite spécifiquement pour répondre aussi bien aux besoins des professionnels de la recherche clinique que des patients.
